--- a/pages/My outputs tables.xlsx
+++ b/pages/My outputs tables.xlsx
@@ -638,7 +638,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:O14"/>
+  <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -660,12 +660,12 @@
       <c r="A3"/>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>year of reporting</t>
+          <t>years</t>
         </is>
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>ene</t>
+          <t>gen</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
@@ -680,22 +680,22 @@
       </c>
       <c r="F3" s="7" t="inlineStr">
         <is>
-          <t>abr</t>
+          <t>apr</t>
         </is>
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>mag</t>
         </is>
       </c>
       <c r="H3" s="7" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>giu</t>
         </is>
       </c>
       <c r="I3" s="7" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>lug</t>
         </is>
       </c>
       <c r="J3" s="7" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="K3" s="7" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>set</t>
         </is>
       </c>
       <c r="L3" s="7" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>ott</t>
         </is>
       </c>
       <c r="M3" s="7" t="inlineStr">
@@ -737,43 +737,43 @@
         </is>
       </c>
       <c r="C4" s="1">
-        <v>673</v>
+        <v>1587</v>
       </c>
       <c r="D4" s="1">
-        <v>530</v>
+        <v>1439</v>
       </c>
       <c r="E4" s="1">
-        <v>393</v>
+        <v>1099</v>
       </c>
       <c r="F4" s="1">
-        <v>564</v>
+        <v>906</v>
       </c>
       <c r="G4" s="1">
-        <v>640</v>
+        <v>1378</v>
       </c>
       <c r="H4" s="1">
-        <v>713</v>
+        <v>1646</v>
       </c>
       <c r="I4" s="1">
-        <v>621</v>
+        <v>1640</v>
       </c>
       <c r="J4" s="1">
-        <v>328</v>
+        <v>799</v>
       </c>
       <c r="K4" s="1">
-        <v>347</v>
+        <v>955</v>
       </c>
       <c r="L4" s="1">
-        <v>555</v>
+        <v>1422</v>
       </c>
       <c r="M4" s="1">
-        <v>415</v>
+        <v>976</v>
       </c>
       <c r="N4" s="1">
-        <v>627</v>
+        <v>1550</v>
       </c>
       <c r="O4" s="17">
-        <v>6406</v>
+        <v>15397</v>
       </c>
     </row>
     <row r="5">
@@ -784,43 +784,43 @@
         </is>
       </c>
       <c r="C5" s="1">
-        <v>520</v>
+        <v>1391</v>
       </c>
       <c r="D5" s="1">
-        <v>476</v>
+        <v>1488</v>
       </c>
       <c r="E5" s="1">
-        <v>740</v>
+        <v>1390</v>
       </c>
       <c r="F5" s="1">
-        <v>694</v>
+        <v>1870</v>
       </c>
       <c r="G5" s="1">
-        <v>690</v>
+        <v>1236</v>
       </c>
       <c r="H5" s="1">
-        <v>377</v>
+        <v>1488</v>
       </c>
       <c r="I5" s="1">
-        <v>565</v>
+        <v>1737</v>
       </c>
       <c r="J5" s="1">
-        <v>500</v>
+        <v>1097</v>
       </c>
       <c r="K5" s="1">
-        <v>523</v>
+        <v>1320</v>
       </c>
       <c r="L5" s="1">
-        <v>570</v>
+        <v>1642</v>
       </c>
       <c r="M5" s="1">
-        <v>566</v>
+        <v>1581</v>
       </c>
       <c r="N5" s="1">
-        <v>603</v>
+        <v>1647</v>
       </c>
       <c r="O5" s="17">
-        <v>6824</v>
+        <v>17887</v>
       </c>
     </row>
     <row r="6">
@@ -831,43 +831,43 @@
         </is>
       </c>
       <c r="C6" s="1">
-        <v>418</v>
+        <v>1339</v>
       </c>
       <c r="D6" s="1">
-        <v>554</v>
+        <v>1156</v>
       </c>
       <c r="E6" s="1">
-        <v>755</v>
+        <v>1526</v>
       </c>
       <c r="F6" s="1">
-        <v>384</v>
+        <v>1188</v>
       </c>
       <c r="G6" s="1">
-        <v>467</v>
+        <v>1274</v>
       </c>
       <c r="H6" s="1">
-        <v>684</v>
+        <v>1609</v>
       </c>
       <c r="I6" s="1">
-        <v>722</v>
+        <v>1455</v>
       </c>
       <c r="J6" s="1">
-        <v>517</v>
+        <v>1342</v>
       </c>
       <c r="K6" s="1">
-        <v>702</v>
+        <v>1974</v>
       </c>
       <c r="L6" s="1">
-        <v>582</v>
+        <v>1226</v>
       </c>
       <c r="M6" s="1">
-        <v>557</v>
+        <v>1626</v>
       </c>
       <c r="N6" s="1">
-        <v>751</v>
+        <v>1974</v>
       </c>
       <c r="O6" s="17">
-        <v>7093</v>
+        <v>17689</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="7">
@@ -878,43 +878,43 @@
         </is>
       </c>
       <c r="C7" s="15">
-        <v>1611</v>
+        <v>4317</v>
       </c>
       <c r="D7" s="15">
-        <v>1560</v>
+        <v>4083</v>
       </c>
       <c r="E7" s="15">
-        <v>1888</v>
+        <v>4015</v>
       </c>
       <c r="F7" s="15">
-        <v>1642</v>
+        <v>3964</v>
       </c>
       <c r="G7" s="15">
-        <v>1797</v>
+        <v>3888</v>
       </c>
       <c r="H7" s="15">
-        <v>1774</v>
+        <v>4743</v>
       </c>
       <c r="I7" s="15">
-        <v>1908</v>
+        <v>4832</v>
       </c>
       <c r="J7" s="15">
-        <v>1345</v>
+        <v>3238</v>
       </c>
       <c r="K7" s="15">
-        <v>1572</v>
+        <v>4249</v>
       </c>
       <c r="L7" s="15">
-        <v>1707</v>
+        <v>4290</v>
       </c>
       <c r="M7" s="15">
-        <v>1538</v>
+        <v>4183</v>
       </c>
       <c r="N7" s="15">
-        <v>1981</v>
+        <v>5171</v>
       </c>
       <c r="O7" s="18">
-        <v>20323</v>
+        <v>50973</v>
       </c>
     </row>
     <row customHeight="1" ht="30" r="9">
@@ -929,12 +929,12 @@
       <c r="A10"/>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>year of reporting</t>
+          <t>years</t>
         </is>
       </c>
       <c r="C10" s="23" t="inlineStr">
         <is>
-          <t>ene</t>
+          <t>gen</t>
         </is>
       </c>
       <c r="D10" s="23" t="inlineStr">
@@ -949,22 +949,22 @@
       </c>
       <c r="F10" s="23" t="inlineStr">
         <is>
-          <t>abr</t>
+          <t>apr</t>
         </is>
       </c>
       <c r="G10" s="23" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>mag</t>
         </is>
       </c>
       <c r="H10" s="23" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>giu</t>
         </is>
       </c>
       <c r="I10" s="23" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>lug</t>
         </is>
       </c>
       <c r="J10" s="23" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="K10" s="23" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>set</t>
         </is>
       </c>
       <c r="L10" s="23" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>ott</t>
         </is>
       </c>
       <c r="M10" s="23" t="inlineStr">
@@ -987,211 +987,142 @@
           <t>nov</t>
         </is>
       </c>
-      <c r="N10" s="23" t="inlineStr">
+      <c r="N10" s="24" t="inlineStr">
         <is>
           <t>dic</t>
-        </is>
-      </c>
-      <c r="O10" s="24" t="inlineStr">
-        <is>
-          <t>Yearly pos.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="B11" s="1">
+        <v>2022</v>
       </c>
       <c r="C11" s="31">
-        <v>0.0267459138187221</v>
+        <v>3.1</v>
       </c>
       <c r="D11" s="31">
-        <v>0.030188679245283</v>
+        <v>2.8</v>
       </c>
       <c r="E11" s="31">
-        <v>0.0305343511450382</v>
+        <v>3.2</v>
       </c>
       <c r="F11" s="31">
-        <v>0.024822695035461</v>
+        <v>3.4</v>
       </c>
       <c r="G11" s="31">
-        <v>0.0265625</v>
+        <v>2.7</v>
       </c>
       <c r="H11" s="31">
-        <v>0.02945301542777</v>
+        <v>3.2</v>
       </c>
       <c r="I11" s="31">
-        <v>0.0257648953301127</v>
+        <v>2.9</v>
       </c>
       <c r="J11" s="31">
-        <v>0.024390243902439</v>
+        <v>2.6</v>
       </c>
       <c r="K11" s="31">
-        <v>0.0259365994236311</v>
+        <v>3</v>
       </c>
       <c r="L11" s="31">
-        <v>0.0252252252252252</v>
+        <v>2.7</v>
       </c>
       <c r="M11" s="31">
-        <v>0.0265060240963855</v>
+        <v>3</v>
       </c>
       <c r="N11" s="31">
-        <v>0.0239234449760766</v>
-      </c>
-      <c r="O11" s="31">
-        <v>0.0266937246331564</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="B12" s="1">
+        <v>2023</v>
       </c>
       <c r="C12" s="31">
-        <v>0.0288461538461538</v>
+        <v>3.7</v>
       </c>
       <c r="D12" s="31">
-        <v>0.0273109243697479</v>
+        <v>2.9</v>
       </c>
       <c r="E12" s="31">
-        <v>0.0256756756756757</v>
+        <v>2.9</v>
       </c>
       <c r="F12" s="31">
-        <v>0.0259365994236311</v>
+        <v>2.7</v>
       </c>
       <c r="G12" s="31">
-        <v>0.0318840579710145</v>
+        <v>2.3</v>
       </c>
       <c r="H12" s="31">
-        <v>0.0238726790450928</v>
+        <v>3.4</v>
       </c>
       <c r="I12" s="31">
-        <v>0.0353982300884956</v>
+        <v>3.1</v>
       </c>
       <c r="J12" s="31">
-        <v>0.028</v>
+        <v>2.3</v>
       </c>
       <c r="K12" s="31">
-        <v>0.0267686424474187</v>
+        <v>3</v>
       </c>
       <c r="L12" s="31">
-        <v>0.0228070175438597</v>
+        <v>3.1</v>
       </c>
       <c r="M12" s="31">
-        <v>0.0318021201413428</v>
+        <v>2.8</v>
       </c>
       <c r="N12" s="31">
-        <v>0.0281923714759536</v>
-      </c>
-      <c r="O12" s="31">
-        <v>0.0281359906213365</v>
+        <v>2.7</v>
       </c>
     </row>
-    <row r="13">
+    <row customHeight="1" ht="30" r="13">
       <c r="A13"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="C13" s="31">
-        <v>0.0311004784688995</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0.0234657039711191</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0.0278145695364238</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0.0234375</v>
-      </c>
-      <c r="G13" s="31">
-        <v>0.019271948608137</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0.0263157894736842</v>
-      </c>
-      <c r="I13" s="31">
-        <v>0.0249307479224377</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0.0328820116054159</v>
-      </c>
-      <c r="K13" s="31">
-        <v>0.0284900284900285</v>
-      </c>
-      <c r="L13" s="31">
-        <v>0.0274914089347079</v>
-      </c>
-      <c r="M13" s="31">
-        <v>0.0323159784560144</v>
-      </c>
-      <c r="N13" s="31">
-        <v>0.0239680426098535</v>
-      </c>
-      <c r="O13" s="31">
-        <v>0.0267869730720429</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="14">
-      <c r="A14"/>
-      <c r="B14" s="28" t="inlineStr">
-        <is>
-          <t>Monthly Pos.</t>
-        </is>
-      </c>
-      <c r="C14" s="32">
-        <v>0.0285536933581626</v>
-      </c>
-      <c r="D14" s="32">
-        <v>0.0269230769230769</v>
-      </c>
-      <c r="E14" s="32">
-        <v>0.0275423728813559</v>
-      </c>
-      <c r="F14" s="32">
-        <v>0.0249695493300853</v>
-      </c>
-      <c r="G14" s="32">
-        <v>0.0267111853088481</v>
-      </c>
-      <c r="H14" s="32">
-        <v>0.0270574971815107</v>
-      </c>
-      <c r="I14" s="32">
-        <v>0.0283018867924528</v>
-      </c>
-      <c r="J14" s="32">
-        <v>0.028996282527881</v>
-      </c>
-      <c r="K14" s="32">
-        <v>0.02735368956743</v>
-      </c>
-      <c r="L14" s="32">
-        <v>0.0251903925014646</v>
-      </c>
-      <c r="M14" s="32">
-        <v>0.0305591677503251</v>
-      </c>
-      <c r="N14" s="32">
-        <v>0.0252397778899546</v>
-      </c>
-      <c r="O14" s="33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="B13" s="28">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="32">
+        <v>2.6</v>
+      </c>
+      <c r="D13" s="32">
+        <v>2.9</v>
+      </c>
+      <c r="E13" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="F13" s="32">
+        <v>2.9</v>
+      </c>
+      <c r="G13" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="H13" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="I13" s="32">
+        <v>2.6</v>
+      </c>
+      <c r="J13" s="32">
+        <v>2.8</v>
+      </c>
+      <c r="K13" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="L13" s="32">
+        <v>2.9</v>
+      </c>
+      <c r="M13" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="33">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
